--- a/src/main/webapp/assets/exceltpl/workclass.xlsx
+++ b/src/main/webapp/assets/exceltpl/workclass.xlsx
@@ -4,13 +4,45 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21360" windowHeight="9120"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>11623</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>11623:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1,2,3,4,5</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25,7 +57,7 @@
     <t>*工种名称</t>
   </si>
   <si>
-    <t>工种等级名称</t>
+    <t>*工种等级名称</t>
   </si>
   <si>
     <t>工种薪酬</t>
@@ -44,7 +76,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -210,6 +242,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1041,7 +1084,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1086,5 +1129,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>